--- a/data/Ralph_Azham/_all.xlsx
+++ b/data/Ralph_Azham/_all.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Interactions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Interactions!$A$1:$X$981</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="497">
   <si>
     <t>Page</t>
   </si>
@@ -1509,11 +1509,47 @@
   <si>
     <t>StartPanel</t>
   </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Est-ce qu'on ment aux gens qu'on aime ?</t>
+  </si>
+  <si>
+    <t>La mort au début du chemin</t>
+  </si>
+  <si>
+    <t>Noires sont les étoiles</t>
+  </si>
+  <si>
+    <t>Un caillou enterré n'apprend jamais rien</t>
+  </si>
+  <si>
+    <t>L'ennemi de mon ennemi</t>
+  </si>
+  <si>
+    <t>Une fin à toute chose</t>
+  </si>
+  <si>
+    <t>Personne n'attrape une rivière</t>
+  </si>
+  <si>
+    <t>Point de rupture</t>
+  </si>
+  <si>
+    <t>Un feu qui meurt</t>
+  </si>
+  <si>
+    <t>L'engrenage</t>
+  </si>
+  <si>
+    <t>Le pays des démons bleus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1582,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1597,6 +1633,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,9 +1918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37478,10 +37517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37490,9 +37529,10 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -37505,8 +37545,11 @@
       <c r="D1" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -37520,8 +37563,11 @@
         <f t="shared" ref="D2:D12" si="0">C2-B2+1</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -37536,8 +37582,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37552,8 +37601,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -37568,8 +37620,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37584,8 +37639,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -37600,8 +37658,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -37616,8 +37677,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -37632,8 +37696,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -37648,8 +37715,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -37664,8 +37734,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -37680,8 +37753,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>

--- a/data/Ralph_Azham/_all.xlsx
+++ b/data/Ralph_Azham/_all.xlsx
@@ -1919,8 +1919,8 @@
   <dimension ref="A1:X982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A905" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E936" sqref="E936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6193,7 +6193,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="4">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E151" s="4">
         <v>9</v>
@@ -8577,7 +8577,7 @@
         <v>161</v>
       </c>
       <c r="E239" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>20</v>
@@ -8647,7 +8647,7 @@
         <v>162</v>
       </c>
       <c r="E241" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>20</v>
@@ -12241,7 +12241,7 @@
         <v>13</v>
       </c>
       <c r="D364" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E364" s="4">
         <v>9</v>
@@ -12851,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="D387" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E387" s="4">
         <v>13</v>
@@ -13447,7 +13447,7 @@
         <v>4</v>
       </c>
       <c r="D409" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E409" s="4">
         <v>8</v>
@@ -19612,6 +19612,9 @@
       <c r="D616">
         <v>330</v>
       </c>
+      <c r="E616">
+        <v>7</v>
+      </c>
       <c r="F616" s="4" t="s">
         <v>15</v>
       </c>
@@ -20951,7 +20954,7 @@
         <v>358</v>
       </c>
       <c r="E667" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F667" t="s">
         <v>20</v>
@@ -25476,7 +25479,7 @@
         <v>435</v>
       </c>
       <c r="E825" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F825" t="s">
         <v>20</v>
@@ -25637,7 +25640,7 @@
         <v>439</v>
       </c>
       <c r="E829" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F829" t="s">
         <v>20</v>
@@ -28638,7 +28641,7 @@
         <v>496</v>
       </c>
       <c r="E935" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F935" s="4" t="s">
         <v>37</v>
@@ -29916,8 +29919,8 @@
   <dimension ref="A1:C898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Ralph_Azham/_all.xlsx
+++ b/data/Ralph_Azham/_all.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Interactions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Interactions!$A$1:$X$981</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5104" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="540">
   <si>
     <t>Page</t>
   </si>
@@ -1679,7 +1679,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2058,9 +2058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A943" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A982" sqref="A982"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A904" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A913" sqref="A913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28145,7 +28145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="913" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A913" s="4">
         <v>11</v>
       </c>
@@ -28213,13 +28213,10 @@
         <v>356</v>
       </c>
       <c r="W913" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="X913" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="914" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A914" s="4">
         <v>11</v>
       </c>
@@ -28248,7 +28245,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="915" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A915" s="4">
         <v>11</v>
       </c>
@@ -28271,7 +28268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="916" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A916" s="4">
         <v>11</v>
       </c>
@@ -28300,7 +28297,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="917" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A917" s="4">
         <v>11</v>
       </c>
@@ -28326,7 +28323,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="918" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A918" s="4">
         <v>11</v>
       </c>
@@ -28349,7 +28346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="919" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A919" s="4">
         <v>11</v>
       </c>
@@ -28375,7 +28372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="920" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A920" s="4">
         <v>11</v>
       </c>
@@ -28404,7 +28401,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="921" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A921" s="4">
         <v>11</v>
       </c>
@@ -28433,7 +28430,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="922" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A922" s="4">
         <v>11</v>
       </c>
@@ -28465,7 +28462,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="923" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A923" s="4">
         <v>11</v>
       </c>
@@ -28497,7 +28494,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="924" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A924" s="4">
         <v>11</v>
       </c>
@@ -28525,7 +28522,7 @@
       <c r="I924" s="4"/>
       <c r="J924" s="4"/>
     </row>
-    <row r="925" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A925" s="4">
         <v>11</v>
       </c>
@@ -28548,7 +28545,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="926" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A926" s="4">
         <v>11</v>
       </c>
@@ -28571,7 +28568,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="927" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A927" s="4">
         <v>11</v>
       </c>
@@ -28597,7 +28594,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="928" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A928" s="4">
         <v>11</v>
       </c>
@@ -37924,7 +37921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/data/Ralph_Azham/_all.xlsx
+++ b/data/Ralph_Azham/_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703EFC4-3451-48E1-81A4-6D9AB84678AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF761C-9E3B-4BD7-B77C-2C58232B2914}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="613">
   <si>
     <t>Page</t>
   </si>
@@ -1867,6 +1867,9 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Tilda</t>
   </si>
 </sst>
 </file>
@@ -43242,7 +43245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
@@ -43690,11 +43693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D477"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B449" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B340" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A478" sqref="A478"/>
+      <selection pane="bottomRight" activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48606,7 +48609,9 @@
       <c r="A436" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B436" s="4"/>
+      <c r="B436" s="4" t="s">
+        <v>612</v>
+      </c>
       <c r="C436" s="12" t="s">
         <v>453</v>
       </c>

--- a/data/Ralph_Azham/_all.xlsx
+++ b/data/Ralph_Azham/_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vincent\eclipse\workspaces\Networks\NaNet\data\Ralph_Azham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF783B09-F2ED-4B03-AAD0-52A19AD2AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2695146-C7EB-4E5D-B990-BECFC822A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactions" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Interactions!$A$1:$X$1189</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7259" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7261" uniqueCount="618">
   <si>
     <t>Page</t>
   </si>
@@ -1879,6 +1886,12 @@
   </si>
   <si>
     <t>07</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Named</t>
   </si>
 </sst>
 </file>
@@ -2306,10 +2319,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A971" sqref="A971"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -37109,7 +37122,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="27"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
@@ -43277,14 +43290,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="27" bestFit="1" customWidth="1"/>
@@ -43295,10 +43308,12 @@
     <col min="7" max="7" width="7" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>594</v>
       </c>
@@ -43327,10 +43342,14 @@
         <v>597</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -43359,8 +43378,11 @@
       <c r="I2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -43390,8 +43412,11 @@
       <c r="I3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -43421,8 +43446,11 @@
       <c r="I4" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -43452,9 +43480,13 @@
       <c r="I5" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -43484,8 +43516,12 @@
       <c r="I6" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -43515,8 +43551,12 @@
       <c r="I7" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -43546,8 +43586,12 @@
       <c r="I8" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
@@ -43577,9 +43621,13 @@
       <c r="I9" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -43609,8 +43657,12 @@
       <c r="I10" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -43640,8 +43692,12 @@
       <c r="I11" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -43671,8 +43727,12 @@
       <c r="I12" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -43701,11 +43761,15 @@
       <c r="I13" t="s">
         <v>607</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="21">
         <v>5.8784722222222224E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="28"/>
       <c r="C14" s="3"/>
@@ -43716,6 +43780,8 @@
       <c r="H14" s="22"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43725,24 +43791,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D477"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>434</v>
       </c>
@@ -43755,8 +43821,11 @@
       <c r="D1" s="10" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -43766,8 +43835,11 @@
       <c r="D2" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -43777,8 +43849,11 @@
       <c r="D3" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -43788,8 +43863,11 @@
       <c r="D4" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -43799,8 +43877,11 @@
       <c r="D5" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -43810,8 +43891,11 @@
       <c r="D6" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>390</v>
       </c>
@@ -43821,8 +43905,11 @@
       <c r="D7" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>381</v>
       </c>
@@ -43832,8 +43919,11 @@
       <c r="D8" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -43843,8 +43933,11 @@
       <c r="D9" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -43854,8 +43947,11 @@
       <c r="D10" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -43865,8 +43961,11 @@
       <c r="D11" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -43876,8 +43975,11 @@
       <c r="D12" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -43887,8 +43989,11 @@
       <c r="D13" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -43898,8 +44003,11 @@
       <c r="D14" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -43909,8 +44017,11 @@
       <c r="D15" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -43920,8 +44031,11 @@
       <c r="D16" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -43931,8 +44045,11 @@
       <c r="D17" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -43942,8 +44059,11 @@
       <c r="D18" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -43953,8 +44073,11 @@
       <c r="D19" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>282</v>
       </c>
@@ -43964,8 +44087,11 @@
       <c r="D20" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>366</v>
       </c>
@@ -43975,8 +44101,11 @@
       <c r="D21" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>402</v>
       </c>
@@ -43986,8 +44115,11 @@
       <c r="D22" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>417</v>
       </c>
@@ -43997,8 +44129,11 @@
       <c r="D23" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>234</v>
       </c>
@@ -44008,8 +44143,11 @@
       <c r="D24" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -44019,8 +44157,11 @@
       <c r="D25" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>449</v>
       </c>
@@ -44030,8 +44171,11 @@
       <c r="D26" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -44041,8 +44185,11 @@
       <c r="D27" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -44052,8 +44199,11 @@
       <c r="D28" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -44063,8 +44213,11 @@
       <c r="D29" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>458</v>
       </c>
@@ -44074,8 +44227,11 @@
       <c r="D30" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -44085,8 +44241,11 @@
       <c r="D31" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -44096,8 +44255,11 @@
       <c r="D32" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -44107,8 +44269,11 @@
       <c r="D33" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>450</v>
       </c>
@@ -44118,8 +44283,11 @@
       <c r="D34" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -44129,8 +44297,11 @@
       <c r="D35" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>294</v>
       </c>
@@ -44140,8 +44311,11 @@
       <c r="D36" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -44151,8 +44325,11 @@
       <c r="D37" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>459</v>
       </c>
@@ -44162,8 +44339,11 @@
       <c r="D38" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -44173,8 +44353,11 @@
       <c r="D39" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -44184,8 +44367,11 @@
       <c r="D40" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -44195,8 +44381,11 @@
       <c r="D41" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -44206,8 +44395,11 @@
       <c r="D42" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>280</v>
       </c>
@@ -44217,8 +44409,11 @@
       <c r="D43" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>386</v>
       </c>
@@ -44228,8 +44423,11 @@
       <c r="D44" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -44239,8 +44437,11 @@
       <c r="D45" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -44250,8 +44451,11 @@
       <c r="D46" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -44261,8 +44465,11 @@
       <c r="D47" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>448</v>
       </c>
@@ -44272,8 +44479,11 @@
       <c r="D48" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -44283,8 +44493,11 @@
       <c r="D49" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>270</v>
       </c>
@@ -44294,8 +44507,11 @@
       <c r="D50" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -44305,8 +44521,11 @@
       <c r="D51" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -44316,8 +44535,11 @@
       <c r="D52" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -44327,8 +44549,11 @@
       <c r="D53" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>451</v>
       </c>
@@ -44338,8 +44563,11 @@
       <c r="D54" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -44349,8 +44577,11 @@
       <c r="D55" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>226</v>
       </c>
@@ -44360,8 +44591,11 @@
       <c r="D56" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -44371,8 +44605,11 @@
       <c r="D57" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>563</v>
       </c>
@@ -44382,8 +44619,11 @@
       <c r="D58" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>353</v>
       </c>
@@ -44393,8 +44633,11 @@
       <c r="D59" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -44404,8 +44647,11 @@
       <c r="D60" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>143</v>
       </c>
@@ -44418,8 +44664,11 @@
       <c r="D61" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>176</v>
       </c>
@@ -44430,8 +44679,11 @@
       <c r="D62" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>199</v>
       </c>
@@ -44441,8 +44693,11 @@
       <c r="D63" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>245</v>
       </c>
@@ -44452,8 +44707,11 @@
       <c r="D64" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>300</v>
       </c>
@@ -44463,8 +44721,11 @@
       <c r="D65" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>301</v>
       </c>
@@ -44474,8 +44735,11 @@
       <c r="D66" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -44485,8 +44749,11 @@
       <c r="D67" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>460</v>
       </c>
@@ -44496,8 +44763,11 @@
       <c r="D68" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>361</v>
       </c>
@@ -44507,8 +44777,11 @@
       <c r="D69" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -44518,8 +44791,11 @@
       <c r="D70" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>276</v>
       </c>
@@ -44529,8 +44805,11 @@
       <c r="D71" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>345</v>
       </c>
@@ -44540,8 +44819,11 @@
       <c r="D72" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>358</v>
       </c>
@@ -44551,8 +44833,11 @@
       <c r="D73" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -44562,8 +44847,11 @@
       <c r="D74" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>389</v>
       </c>
@@ -44573,8 +44861,11 @@
       <c r="D75" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -44584,8 +44875,11 @@
       <c r="D76" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>279</v>
       </c>
@@ -44595,8 +44889,11 @@
       <c r="D77" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -44606,8 +44903,11 @@
       <c r="D78" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>370</v>
       </c>
@@ -44617,8 +44917,11 @@
       <c r="D79" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -44631,8 +44934,11 @@
       <c r="D80" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -44642,8 +44948,11 @@
       <c r="D81" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -44653,8 +44962,11 @@
       <c r="D82" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>357</v>
       </c>
@@ -44664,8 +44976,11 @@
       <c r="D83" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>444</v>
       </c>
@@ -44676,8 +44991,11 @@
       <c r="D84" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>327</v>
       </c>
@@ -44687,8 +45005,11 @@
       <c r="D85" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>564</v>
       </c>
@@ -44699,8 +45020,11 @@
       <c r="D86" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>331</v>
       </c>
@@ -44710,8 +45034,11 @@
       <c r="D87" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -44721,8 +45048,11 @@
       <c r="D88" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>324</v>
       </c>
@@ -44732,8 +45062,11 @@
       <c r="D89" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>354</v>
       </c>
@@ -44743,8 +45076,11 @@
       <c r="D90" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>551</v>
       </c>
@@ -44754,8 +45090,11 @@
       <c r="D91" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>555</v>
       </c>
@@ -44765,8 +45104,11 @@
       <c r="D92" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>566</v>
       </c>
@@ -44777,8 +45119,11 @@
       <c r="D93" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>461</v>
       </c>
@@ -44788,8 +45133,11 @@
       <c r="D94" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>22</v>
       </c>
@@ -44800,8 +45148,11 @@
       <c r="D95" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>252</v>
       </c>
@@ -44811,8 +45162,11 @@
       <c r="D96" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>546</v>
       </c>
@@ -44823,8 +45177,11 @@
       <c r="D97" s="13" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>344</v>
       </c>
@@ -44834,8 +45191,11 @@
       <c r="D98" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>129</v>
       </c>
@@ -44846,8 +45206,11 @@
       <c r="D99" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>273</v>
       </c>
@@ -44857,8 +45220,11 @@
       <c r="D100" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>170</v>
       </c>
@@ -44868,8 +45234,11 @@
       <c r="D101" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -44879,8 +45248,11 @@
       <c r="D102" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>385</v>
       </c>
@@ -44890,8 +45262,11 @@
       <c r="D103" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>349</v>
       </c>
@@ -44901,8 +45276,11 @@
       <c r="D104" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>350</v>
       </c>
@@ -44912,8 +45290,11 @@
       <c r="D105" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>91</v>
       </c>
@@ -44923,8 +45304,11 @@
       <c r="D106" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -44934,8 +45318,11 @@
       <c r="D107" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -44945,8 +45332,11 @@
       <c r="D108" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -44956,8 +45346,11 @@
       <c r="D109" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>539</v>
       </c>
@@ -44968,8 +45361,11 @@
       <c r="D110" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>540</v>
       </c>
@@ -44980,8 +45376,11 @@
       <c r="D111" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -44994,8 +45393,11 @@
       <c r="D112" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>536</v>
       </c>
@@ -45006,8 +45408,11 @@
       <c r="D113" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>537</v>
       </c>
@@ -45018,8 +45423,11 @@
       <c r="D114" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>150</v>
       </c>
@@ -45029,8 +45437,11 @@
       <c r="D115" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>163</v>
       </c>
@@ -45040,8 +45451,11 @@
       <c r="D116" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>383</v>
       </c>
@@ -45051,8 +45465,11 @@
       <c r="D117" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>8</v>
       </c>
@@ -45063,8 +45480,11 @@
       <c r="D118" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>396</v>
       </c>
@@ -45074,8 +45494,11 @@
       <c r="D119" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -45085,8 +45508,11 @@
       <c r="D120" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>77</v>
       </c>
@@ -45096,8 +45522,11 @@
       <c r="D121" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>275</v>
       </c>
@@ -45107,8 +45536,11 @@
       <c r="D122" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -45118,8 +45550,11 @@
       <c r="D123" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -45129,8 +45564,11 @@
       <c r="D124" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>317</v>
       </c>
@@ -45141,8 +45579,11 @@
       <c r="D125" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>462</v>
       </c>
@@ -45152,8 +45593,11 @@
       <c r="D126" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>496</v>
       </c>
@@ -45163,8 +45607,11 @@
       <c r="D127" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>486</v>
       </c>
@@ -45174,8 +45621,11 @@
       <c r="D128" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>487</v>
       </c>
@@ -45185,8 +45635,11 @@
       <c r="D129" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -45196,8 +45649,11 @@
       <c r="D130" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>309</v>
       </c>
@@ -45207,8 +45663,11 @@
       <c r="D131" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>489</v>
       </c>
@@ -45218,8 +45677,11 @@
       <c r="D132" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>548</v>
       </c>
@@ -45229,8 +45691,11 @@
       <c r="D133" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>439</v>
       </c>
@@ -45243,8 +45708,11 @@
       <c r="D134" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>240</v>
       </c>
@@ -45255,8 +45723,11 @@
       <c r="D135" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -45266,8 +45737,11 @@
       <c r="D136" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>333</v>
       </c>
@@ -45277,8 +45751,11 @@
       <c r="D137" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -45288,8 +45765,11 @@
       <c r="D138" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -45299,8 +45779,11 @@
       <c r="D139" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>319</v>
       </c>
@@ -45310,8 +45793,11 @@
       <c r="D140" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -45321,8 +45807,11 @@
       <c r="D141" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>43</v>
       </c>
@@ -45332,8 +45821,11 @@
       <c r="D142" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>490</v>
       </c>
@@ -45343,8 +45835,11 @@
       <c r="D143" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>492</v>
       </c>
@@ -45354,8 +45849,11 @@
       <c r="D144" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>493</v>
       </c>
@@ -45365,8 +45863,11 @@
       <c r="D145" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>39</v>
       </c>
@@ -45377,8 +45878,11 @@
       <c r="D146" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>522</v>
       </c>
@@ -45389,8 +45893,11 @@
       <c r="D147" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -45400,8 +45907,11 @@
       <c r="D148" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -45411,8 +45921,11 @@
       <c r="D149" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>106</v>
       </c>
@@ -45422,8 +45935,11 @@
       <c r="D150" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>494</v>
       </c>
@@ -45433,8 +45949,11 @@
       <c r="D151" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>547</v>
       </c>
@@ -45445,8 +45964,11 @@
       <c r="D152" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -45456,8 +45978,11 @@
       <c r="D153" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>254</v>
       </c>
@@ -45467,8 +45992,11 @@
       <c r="D154" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>258</v>
       </c>
@@ -45478,8 +46006,11 @@
       <c r="D155" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>283</v>
       </c>
@@ -45489,8 +46020,11 @@
       <c r="D156" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>299</v>
       </c>
@@ -45500,8 +46034,11 @@
       <c r="D157" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -45511,8 +46048,11 @@
       <c r="D158" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>379</v>
       </c>
@@ -45522,8 +46062,11 @@
       <c r="D159" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>395</v>
       </c>
@@ -45533,8 +46076,11 @@
       <c r="D160" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>406</v>
       </c>
@@ -45544,8 +46090,11 @@
       <c r="D161" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>561</v>
       </c>
@@ -45555,8 +46104,11 @@
       <c r="D162" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>569</v>
       </c>
@@ -45566,8 +46118,11 @@
       <c r="D163" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>570</v>
       </c>
@@ -45577,8 +46132,11 @@
       <c r="D164" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>238</v>
       </c>
@@ -45588,8 +46146,11 @@
       <c r="D165" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>316</v>
       </c>
@@ -45600,8 +46161,11 @@
       <c r="D166" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>69</v>
       </c>
@@ -45611,8 +46175,11 @@
       <c r="D167" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>74</v>
       </c>
@@ -45622,8 +46189,11 @@
       <c r="D168" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>85</v>
       </c>
@@ -45633,8 +46203,11 @@
       <c r="D169" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>495</v>
       </c>
@@ -45644,8 +46217,11 @@
       <c r="D170" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>542</v>
       </c>
@@ -45656,8 +46232,11 @@
       <c r="D171" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>133</v>
       </c>
@@ -45667,8 +46246,11 @@
       <c r="D172" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>545</v>
       </c>
@@ -45679,8 +46261,11 @@
       <c r="D173" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -45690,8 +46275,11 @@
       <c r="D174" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>231</v>
       </c>
@@ -45701,8 +46289,11 @@
       <c r="D175" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -45712,8 +46303,11 @@
       <c r="D176" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>259</v>
       </c>
@@ -45723,8 +46317,11 @@
       <c r="D177" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>261</v>
       </c>
@@ -45734,8 +46331,11 @@
       <c r="D178" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>268</v>
       </c>
@@ -45745,8 +46345,11 @@
       <c r="D179" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>307</v>
       </c>
@@ -45756,8 +46359,11 @@
       <c r="D180" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>310</v>
       </c>
@@ -45767,8 +46373,11 @@
       <c r="D181" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>329</v>
       </c>
@@ -45778,8 +46387,11 @@
       <c r="D182" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>332</v>
       </c>
@@ -45789,8 +46401,11 @@
       <c r="D183" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>356</v>
       </c>
@@ -45800,8 +46415,11 @@
       <c r="D184" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>37</v>
       </c>
@@ -45811,8 +46429,11 @@
       <c r="D185" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>403</v>
       </c>
@@ -45822,8 +46443,11 @@
       <c r="D186" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -45833,8 +46457,11 @@
       <c r="D187" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>554</v>
       </c>
@@ -45844,8 +46471,11 @@
       <c r="D188" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>557</v>
       </c>
@@ -45855,8 +46485,11 @@
       <c r="D189" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>541</v>
       </c>
@@ -45867,8 +46500,11 @@
       <c r="D190" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -45878,8 +46514,11 @@
       <c r="D191" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>49</v>
       </c>
@@ -45889,8 +46528,11 @@
       <c r="D192" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>532</v>
       </c>
@@ -45900,8 +46542,11 @@
       <c r="D193" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>533</v>
       </c>
@@ -45911,8 +46556,11 @@
       <c r="D194" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>56</v>
       </c>
@@ -45922,8 +46570,11 @@
       <c r="D195" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>60</v>
       </c>
@@ -45933,8 +46584,11 @@
       <c r="D196" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>107</v>
       </c>
@@ -45944,8 +46598,11 @@
       <c r="D197" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>263</v>
       </c>
@@ -45955,8 +46612,11 @@
       <c r="D198" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -45966,8 +46626,11 @@
       <c r="D199" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>264</v>
       </c>
@@ -45977,8 +46640,11 @@
       <c r="D200" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>463</v>
       </c>
@@ -45988,8 +46654,11 @@
       <c r="D201" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>464</v>
       </c>
@@ -45999,8 +46668,11 @@
       <c r="D202" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>465</v>
       </c>
@@ -46010,8 +46682,11 @@
       <c r="D203" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>151</v>
       </c>
@@ -46021,8 +46696,11 @@
       <c r="D204" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>262</v>
       </c>
@@ -46032,8 +46710,11 @@
       <c r="D205" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>466</v>
       </c>
@@ -46043,8 +46724,11 @@
       <c r="D206" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -46054,8 +46738,11 @@
       <c r="D207" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -46065,8 +46752,11 @@
       <c r="D208" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>467</v>
       </c>
@@ -46076,8 +46766,11 @@
       <c r="D209" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>468</v>
       </c>
@@ -46087,8 +46780,11 @@
       <c r="D210" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>372</v>
       </c>
@@ -46098,8 +46794,11 @@
       <c r="D211" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>207</v>
       </c>
@@ -46109,8 +46808,11 @@
       <c r="D212" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>330</v>
       </c>
@@ -46120,8 +46822,11 @@
       <c r="D213" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>104</v>
       </c>
@@ -46131,8 +46836,11 @@
       <c r="D214" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>109</v>
       </c>
@@ -46142,8 +46850,11 @@
       <c r="D215" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -46153,8 +46864,11 @@
       <c r="D216" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>206</v>
       </c>
@@ -46164,8 +46878,11 @@
       <c r="D217" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>469</v>
       </c>
@@ -46175,8 +46892,11 @@
       <c r="D218" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>412</v>
       </c>
@@ -46186,8 +46906,11 @@
       <c r="D219" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>367</v>
       </c>
@@ -46197,8 +46920,11 @@
       <c r="D220" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>498</v>
       </c>
@@ -46208,8 +46934,11 @@
       <c r="D221" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>126</v>
       </c>
@@ -46219,8 +46948,11 @@
       <c r="D222" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>470</v>
       </c>
@@ -46230,8 +46962,11 @@
       <c r="D223" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>105</v>
       </c>
@@ -46241,8 +46976,11 @@
       <c r="D224" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>75</v>
       </c>
@@ -46252,8 +46990,11 @@
       <c r="D225" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>88</v>
       </c>
@@ -46263,8 +47004,11 @@
       <c r="D226" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>155</v>
       </c>
@@ -46274,8 +47018,11 @@
       <c r="D227" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>160</v>
       </c>
@@ -46285,8 +47032,11 @@
       <c r="D228" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>185</v>
       </c>
@@ -46296,8 +47046,11 @@
       <c r="D229" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>188</v>
       </c>
@@ -46307,8 +47060,11 @@
       <c r="D230" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>190</v>
       </c>
@@ -46318,8 +47074,11 @@
       <c r="D231" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -46329,8 +47088,11 @@
       <c r="D232" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -46340,8 +47102,11 @@
       <c r="D233" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>266</v>
       </c>
@@ -46351,8 +47116,11 @@
       <c r="D234" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>375</v>
       </c>
@@ -46362,8 +47130,11 @@
       <c r="D235" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>552</v>
       </c>
@@ -46373,8 +47144,11 @@
       <c r="D236" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>556</v>
       </c>
@@ -46385,8 +47159,11 @@
       <c r="D237" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>562</v>
       </c>
@@ -46396,8 +47173,11 @@
       <c r="D238" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>46</v>
       </c>
@@ -46407,8 +47187,11 @@
       <c r="D239" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>531</v>
       </c>
@@ -46419,8 +47202,11 @@
       <c r="D240" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>57</v>
       </c>
@@ -46430,8 +47216,11 @@
       <c r="D241" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>59</v>
       </c>
@@ -46441,8 +47230,11 @@
       <c r="D242" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>369</v>
       </c>
@@ -46452,8 +47244,11 @@
       <c r="D243" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>378</v>
       </c>
@@ -46463,8 +47258,11 @@
       <c r="D244" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>397</v>
       </c>
@@ -46474,8 +47272,11 @@
       <c r="D245" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>407</v>
       </c>
@@ -46485,8 +47286,11 @@
       <c r="D246" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>392</v>
       </c>
@@ -46496,8 +47300,11 @@
       <c r="D247" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>499</v>
       </c>
@@ -46507,8 +47314,11 @@
       <c r="D248" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>503</v>
       </c>
@@ -46519,8 +47329,11 @@
       <c r="D249" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>506</v>
       </c>
@@ -46531,8 +47344,11 @@
       <c r="D250" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>502</v>
       </c>
@@ -46543,8 +47359,11 @@
       <c r="D251" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>501</v>
       </c>
@@ -46555,8 +47374,11 @@
       <c r="D252" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>500</v>
       </c>
@@ -46567,8 +47389,11 @@
       <c r="D253" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>507</v>
       </c>
@@ -46579,8 +47404,11 @@
       <c r="D254" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>504</v>
       </c>
@@ -46591,8 +47419,11 @@
       <c r="D255" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>505</v>
       </c>
@@ -46603,8 +47434,11 @@
       <c r="D256" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -46614,8 +47448,11 @@
       <c r="D257" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -46625,8 +47462,11 @@
       <c r="D258" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>471</v>
       </c>
@@ -46636,8 +47476,11 @@
       <c r="D259" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>113</v>
       </c>
@@ -46647,8 +47490,11 @@
       <c r="D260" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>115</v>
       </c>
@@ -46658,8 +47504,11 @@
       <c r="D261" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>472</v>
       </c>
@@ -46669,8 +47518,11 @@
       <c r="D262" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>123</v>
       </c>
@@ -46680,8 +47532,11 @@
       <c r="D263" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>156</v>
       </c>
@@ -46691,8 +47546,11 @@
       <c r="D264" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>186</v>
       </c>
@@ -46702,8 +47560,11 @@
       <c r="D265" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>189</v>
       </c>
@@ -46713,8 +47574,11 @@
       <c r="D266" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>187</v>
       </c>
@@ -46724,8 +47588,11 @@
       <c r="D267" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>473</v>
       </c>
@@ -46735,8 +47602,11 @@
       <c r="D268" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>474</v>
       </c>
@@ -46746,8 +47616,11 @@
       <c r="D269" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>475</v>
       </c>
@@ -46757,8 +47630,11 @@
       <c r="D270" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>476</v>
       </c>
@@ -46768,8 +47644,11 @@
       <c r="D271" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>200</v>
       </c>
@@ -46779,8 +47658,11 @@
       <c r="D272" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>34</v>
       </c>
@@ -46790,8 +47672,11 @@
       <c r="D273" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>247</v>
       </c>
@@ -46801,8 +47686,11 @@
       <c r="D274" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>269</v>
       </c>
@@ -46812,8 +47700,11 @@
       <c r="D275" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -46823,8 +47714,11 @@
       <c r="D276" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>477</v>
       </c>
@@ -46834,8 +47728,11 @@
       <c r="D277" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>478</v>
       </c>
@@ -46845,8 +47742,11 @@
       <c r="D278" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>479</v>
       </c>
@@ -46856,8 +47756,11 @@
       <c r="D279" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>480</v>
       </c>
@@ -46867,8 +47770,11 @@
       <c r="D280" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>481</v>
       </c>
@@ -46878,8 +47784,11 @@
       <c r="D281" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>482</v>
       </c>
@@ -46889,8 +47798,11 @@
       <c r="D282" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>101</v>
       </c>
@@ -46900,8 +47812,11 @@
       <c r="D283" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>446</v>
       </c>
@@ -46912,8 +47827,11 @@
       <c r="D284" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>274</v>
       </c>
@@ -46923,8 +47841,11 @@
       <c r="D285" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>28</v>
       </c>
@@ -46935,8 +47856,11 @@
       <c r="D286" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>400</v>
       </c>
@@ -46946,8 +47870,11 @@
       <c r="D287" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>399</v>
       </c>
@@ -46957,8 +47884,11 @@
       <c r="D288" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>50</v>
       </c>
@@ -46968,8 +47898,11 @@
       <c r="D289" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>24</v>
       </c>
@@ -46980,8 +47913,11 @@
       <c r="D290" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -46991,8 +47927,11 @@
       <c r="D291" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>359</v>
       </c>
@@ -47003,8 +47942,11 @@
       <c r="D292" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>355</v>
       </c>
@@ -47014,8 +47956,11 @@
       <c r="D293" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>33</v>
       </c>
@@ -47025,8 +47970,11 @@
       <c r="D294" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -47036,8 +47984,11 @@
       <c r="D295" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>529</v>
       </c>
@@ -47047,8 +47998,11 @@
       <c r="D296" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>524</v>
       </c>
@@ -47061,8 +48015,11 @@
       <c r="D297" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
         <v>525</v>
       </c>
@@ -47075,8 +48032,11 @@
       <c r="D298" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>445</v>
       </c>
@@ -47089,8 +48049,11 @@
       <c r="D299" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>204</v>
       </c>
@@ -47100,8 +48063,11 @@
       <c r="D300" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>484</v>
       </c>
@@ -47111,8 +48077,11 @@
       <c r="D301" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>227</v>
       </c>
@@ -47122,8 +48091,11 @@
       <c r="D302" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>230</v>
       </c>
@@ -47133,8 +48105,11 @@
       <c r="D303" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>205</v>
       </c>
@@ -47147,8 +48122,11 @@
       <c r="D304" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>16</v>
       </c>
@@ -47158,8 +48136,11 @@
       <c r="D305" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>11</v>
       </c>
@@ -47172,8 +48153,11 @@
       <c r="D306" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>10</v>
       </c>
@@ -47186,8 +48170,11 @@
       <c r="D307" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>405</v>
       </c>
@@ -47197,8 +48184,11 @@
       <c r="D308" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>510</v>
       </c>
@@ -47208,8 +48198,11 @@
       <c r="D309" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -47222,8 +48215,11 @@
       <c r="D310" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>322</v>
       </c>
@@ -47234,8 +48230,11 @@
       <c r="D311" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>98</v>
       </c>
@@ -47245,8 +48244,11 @@
       <c r="D312" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -47256,8 +48258,11 @@
       <c r="D313" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>100</v>
       </c>
@@ -47267,8 +48272,11 @@
       <c r="D314" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>112</v>
       </c>
@@ -47278,8 +48286,11 @@
       <c r="D315" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>66</v>
       </c>
@@ -47289,8 +48300,11 @@
       <c r="D316" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>67</v>
       </c>
@@ -47300,8 +48314,11 @@
       <c r="D317" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>174</v>
       </c>
@@ -47311,8 +48328,11 @@
       <c r="D318" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>287</v>
       </c>
@@ -47322,8 +48342,11 @@
       <c r="D319" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -47333,8 +48356,11 @@
       <c r="D320" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>68</v>
       </c>
@@ -47344,8 +48370,11 @@
       <c r="D321" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>161</v>
       </c>
@@ -47355,8 +48384,11 @@
       <c r="D322" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>177</v>
       </c>
@@ -47367,8 +48399,11 @@
       <c r="D323" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>543</v>
       </c>
@@ -47378,8 +48413,11 @@
       <c r="D324" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>131</v>
       </c>
@@ -47389,8 +48427,11 @@
       <c r="D325" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>132</v>
       </c>
@@ -47400,8 +48441,11 @@
       <c r="D326" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>130</v>
       </c>
@@ -47411,8 +48455,11 @@
       <c r="D327" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>135</v>
       </c>
@@ -47422,8 +48469,11 @@
       <c r="D328" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>140</v>
       </c>
@@ -47436,8 +48486,11 @@
       <c r="D329" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>443</v>
       </c>
@@ -47448,8 +48501,11 @@
       <c r="D330" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>19</v>
       </c>
@@ -47460,8 +48516,11 @@
       <c r="D331" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>89</v>
       </c>
@@ -47472,8 +48531,11 @@
       <c r="D332" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>40</v>
       </c>
@@ -47484,8 +48546,11 @@
       <c r="D333" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>285</v>
       </c>
@@ -47495,8 +48560,11 @@
       <c r="D334" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>483</v>
       </c>
@@ -47506,8 +48574,11 @@
       <c r="D335" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>35</v>
       </c>
@@ -47517,8 +48588,11 @@
       <c r="D336" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>3</v>
       </c>
@@ -47528,8 +48602,11 @@
       <c r="D337" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>248</v>
       </c>
@@ -47539,8 +48616,11 @@
       <c r="D338" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>251</v>
       </c>
@@ -47550,8 +48630,11 @@
       <c r="D339" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>553</v>
       </c>
@@ -47562,8 +48645,11 @@
       <c r="D340" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>250</v>
       </c>
@@ -47573,8 +48659,11 @@
       <c r="D341" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>249</v>
       </c>
@@ -47584,8 +48673,11 @@
       <c r="D342" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>253</v>
       </c>
@@ -47595,8 +48687,11 @@
       <c r="D343" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>526</v>
       </c>
@@ -47609,8 +48704,11 @@
       <c r="D344" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>440</v>
       </c>
@@ -47623,8 +48721,11 @@
       <c r="D345" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2</v>
       </c>
@@ -47634,8 +48735,11 @@
       <c r="D346" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>339</v>
       </c>
@@ -47645,8 +48749,11 @@
       <c r="D347" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>228</v>
       </c>
@@ -47656,8 +48763,11 @@
       <c r="D348" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>82</v>
       </c>
@@ -47667,8 +48777,11 @@
       <c r="D349" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>511</v>
       </c>
@@ -47678,8 +48791,11 @@
       <c r="D350" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>512</v>
       </c>
@@ -47689,8 +48805,11 @@
       <c r="D351" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>514</v>
       </c>
@@ -47700,8 +48819,11 @@
       <c r="D352" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>516</v>
       </c>
@@ -47711,8 +48833,11 @@
       <c r="D353" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>517</v>
       </c>
@@ -47722,8 +48847,11 @@
       <c r="D354" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>374</v>
       </c>
@@ -47733,8 +48861,11 @@
       <c r="D355" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>284</v>
       </c>
@@ -47744,8 +48875,11 @@
       <c r="D356" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -47755,8 +48889,11 @@
       <c r="D357" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>391</v>
       </c>
@@ -47766,8 +48903,11 @@
       <c r="D358" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>382</v>
       </c>
@@ -47777,8 +48917,11 @@
       <c r="D359" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -47788,8 +48931,11 @@
       <c r="D360" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -47799,8 +48945,11 @@
       <c r="D361" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>401</v>
       </c>
@@ -47810,8 +48959,11 @@
       <c r="D362" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>404</v>
       </c>
@@ -47821,8 +48973,11 @@
       <c r="D363" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>411</v>
       </c>
@@ -47832,8 +48987,11 @@
       <c r="D364" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>182</v>
       </c>
@@ -47843,8 +49001,11 @@
       <c r="D365" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>559</v>
       </c>
@@ -47854,8 +49015,11 @@
       <c r="D366" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>568</v>
       </c>
@@ -47865,8 +49029,11 @@
       <c r="D367" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>136</v>
       </c>
@@ -47876,8 +49043,11 @@
       <c r="D368" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>148</v>
       </c>
@@ -47887,8 +49057,11 @@
       <c r="D369" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>558</v>
       </c>
@@ -47898,8 +49071,11 @@
       <c r="D370" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>47</v>
       </c>
@@ -47910,8 +49086,11 @@
       <c r="D371" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>25</v>
       </c>
@@ -47924,8 +49103,11 @@
       <c r="D372" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>139</v>
       </c>
@@ -47938,8 +49120,11 @@
       <c r="D373" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>239</v>
       </c>
@@ -47949,8 +49134,11 @@
       <c r="D374" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>237</v>
       </c>
@@ -47960,8 +49148,11 @@
       <c r="D375" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>255</v>
       </c>
@@ -47971,8 +49162,11 @@
       <c r="D376" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -47982,8 +49176,11 @@
       <c r="D377" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -47993,8 +49190,11 @@
       <c r="D378" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>360</v>
       </c>
@@ -48005,8 +49205,11 @@
       <c r="D379" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>183</v>
       </c>
@@ -48016,8 +49219,11 @@
       <c r="D380" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>518</v>
       </c>
@@ -48027,8 +49233,11 @@
       <c r="D381" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>485</v>
       </c>
@@ -48038,8 +49247,11 @@
       <c r="D382" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>413</v>
       </c>
@@ -48049,8 +49261,11 @@
       <c r="D383" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>224</v>
       </c>
@@ -48060,8 +49275,11 @@
       <c r="D384" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>225</v>
       </c>
@@ -48071,8 +49289,11 @@
       <c r="D385" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>76</v>
       </c>
@@ -48082,8 +49303,11 @@
       <c r="D386" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>157</v>
       </c>
@@ -48093,8 +49317,11 @@
       <c r="D387" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -48104,8 +49331,11 @@
       <c r="D388" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>267</v>
       </c>
@@ -48115,8 +49345,11 @@
       <c r="D389" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>441</v>
       </c>
@@ -48127,8 +49360,11 @@
       <c r="D390" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>365</v>
       </c>
@@ -48138,8 +49374,11 @@
       <c r="D391" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -48152,8 +49391,11 @@
       <c r="D392" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -48166,8 +49408,11 @@
       <c r="D393" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>96</v>
       </c>
@@ -48177,8 +49422,11 @@
       <c r="D394" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>295</v>
       </c>
@@ -48188,8 +49436,11 @@
       <c r="D395" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>296</v>
       </c>
@@ -48199,8 +49450,11 @@
       <c r="D396" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>304</v>
       </c>
@@ -48210,8 +49464,11 @@
       <c r="D397" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -48221,8 +49478,11 @@
       <c r="D398" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>343</v>
       </c>
@@ -48232,8 +49492,11 @@
       <c r="D399" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>346</v>
       </c>
@@ -48246,8 +49509,11 @@
       <c r="D400" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>152</v>
       </c>
@@ -48258,8 +49524,11 @@
       <c r="D401" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>15</v>
       </c>
@@ -48272,8 +49541,11 @@
       <c r="D402" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>191</v>
       </c>
@@ -48283,8 +49555,11 @@
       <c r="D403" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>272</v>
       </c>
@@ -48294,8 +49569,11 @@
       <c r="D404" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>519</v>
       </c>
@@ -48306,8 +49584,11 @@
       <c r="D405" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>110</v>
       </c>
@@ -48317,8 +49598,11 @@
       <c r="D406" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>31</v>
       </c>
@@ -48328,8 +49612,11 @@
       <c r="D407" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>347</v>
       </c>
@@ -48339,8 +49626,11 @@
       <c r="D408" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>315</v>
       </c>
@@ -48350,8 +49640,11 @@
       <c r="D409" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>321</v>
       </c>
@@ -48362,8 +49655,11 @@
       <c r="D410" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>447</v>
       </c>
@@ -48374,8 +49670,11 @@
       <c r="D411" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>203</v>
       </c>
@@ -48385,8 +49684,11 @@
       <c r="D412" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>286</v>
       </c>
@@ -48396,8 +49698,11 @@
       <c r="D413" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>292</v>
       </c>
@@ -48407,8 +49712,11 @@
       <c r="D414" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>348</v>
       </c>
@@ -48418,8 +49726,11 @@
       <c r="D415" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>394</v>
       </c>
@@ -48429,8 +49740,11 @@
       <c r="D416" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>165</v>
       </c>
@@ -48440,8 +49754,11 @@
       <c r="D417" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>242</v>
       </c>
@@ -48451,8 +49768,11 @@
       <c r="D418" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>166</v>
       </c>
@@ -48462,8 +49782,11 @@
       <c r="D419" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>167</v>
       </c>
@@ -48473,8 +49796,11 @@
       <c r="D420" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>192</v>
       </c>
@@ -48484,8 +49810,11 @@
       <c r="D421" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>229</v>
       </c>
@@ -48495,8 +49824,11 @@
       <c r="D422" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>241</v>
       </c>
@@ -48506,8 +49838,11 @@
       <c r="D423" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>243</v>
       </c>
@@ -48517,8 +49852,11 @@
       <c r="D424" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>335</v>
       </c>
@@ -48528,8 +49866,11 @@
       <c r="D425" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>371</v>
       </c>
@@ -48539,8 +49880,11 @@
       <c r="D426" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>550</v>
       </c>
@@ -48550,8 +49894,11 @@
       <c r="D427" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>565</v>
       </c>
@@ -48562,8 +49909,11 @@
       <c r="D428" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>567</v>
       </c>
@@ -48574,8 +49924,11 @@
       <c r="D429" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>53</v>
       </c>
@@ -48585,8 +49938,11 @@
       <c r="D430" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>291</v>
       </c>
@@ -48596,8 +49952,11 @@
       <c r="D431" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>290</v>
       </c>
@@ -48607,8 +49966,11 @@
       <c r="D432" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>128</v>
       </c>
@@ -48618,8 +49980,11 @@
       <c r="D433" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>116</v>
       </c>
@@ -48629,8 +49994,11 @@
       <c r="D434" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>323</v>
       </c>
@@ -48641,8 +50009,11 @@
       <c r="D435" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>306</v>
       </c>
@@ -48655,8 +50026,11 @@
       <c r="D436" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E436" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>342</v>
       </c>
@@ -48666,8 +50040,11 @@
       <c r="D437" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>142</v>
       </c>
@@ -48678,8 +50055,11 @@
       <c r="D438" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E438" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>535</v>
       </c>
@@ -48690,8 +50070,11 @@
       <c r="D439" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>538</v>
       </c>
@@ -48702,8 +50085,11 @@
       <c r="D440" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>64</v>
       </c>
@@ -48713,8 +50099,11 @@
       <c r="D441" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>63</v>
       </c>
@@ -48724,8 +50113,11 @@
       <c r="D442" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>62</v>
       </c>
@@ -48735,8 +50127,11 @@
       <c r="D443" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>61</v>
       </c>
@@ -48746,8 +50141,11 @@
       <c r="D444" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>326</v>
       </c>
@@ -48758,8 +50156,11 @@
       <c r="D445" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>325</v>
       </c>
@@ -48769,8 +50170,11 @@
       <c r="D446" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>137</v>
       </c>
@@ -48780,8 +50184,11 @@
       <c r="D447" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>288</v>
       </c>
@@ -48791,8 +50198,11 @@
       <c r="D448" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>534</v>
       </c>
@@ -48803,8 +50213,11 @@
       <c r="D449" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>544</v>
       </c>
@@ -48814,8 +50227,11 @@
       <c r="D450" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>175</v>
       </c>
@@ -48825,8 +50241,11 @@
       <c r="D451" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>340</v>
       </c>
@@ -48836,8 +50255,11 @@
       <c r="D452" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>362</v>
       </c>
@@ -48847,8 +50269,11 @@
       <c r="D453" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>393</v>
       </c>
@@ -48858,8 +50283,11 @@
       <c r="D454" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
         <v>159</v>
       </c>
@@ -48872,8 +50300,11 @@
       <c r="D455" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E455" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>26</v>
       </c>
@@ -48886,8 +50317,11 @@
       <c r="D456" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E456" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>73</v>
       </c>
@@ -48897,8 +50331,11 @@
       <c r="D457" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>312</v>
       </c>
@@ -48908,8 +50345,11 @@
       <c r="D458" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>83</v>
       </c>
@@ -48919,8 +50359,11 @@
       <c r="D459" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>90</v>
       </c>
@@ -48930,8 +50373,11 @@
       <c r="D460" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>278</v>
       </c>
@@ -48941,8 +50387,11 @@
       <c r="D461" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>71</v>
       </c>
@@ -48952,8 +50401,11 @@
       <c r="D462" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>520</v>
       </c>
@@ -48963,8 +50415,11 @@
       <c r="D463" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>72</v>
       </c>
@@ -48974,8 +50429,11 @@
       <c r="D464" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>179</v>
       </c>
@@ -48986,8 +50444,11 @@
       <c r="D465" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>70</v>
       </c>
@@ -48997,8 +50458,11 @@
       <c r="D466" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>442</v>
       </c>
@@ -49009,8 +50473,11 @@
       <c r="D467" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>178</v>
       </c>
@@ -49021,8 +50488,11 @@
       <c r="D468" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>9</v>
       </c>
@@ -49033,8 +50503,11 @@
       <c r="D469" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>560</v>
       </c>
@@ -49044,8 +50517,11 @@
       <c r="D470" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -49055,8 +50531,11 @@
       <c r="D471" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -49066,8 +50545,11 @@
       <c r="D472" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>328</v>
       </c>
@@ -49077,8 +50559,11 @@
       <c r="D473" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
         <v>21</v>
       </c>
@@ -49089,8 +50574,11 @@
       <c r="D474" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>23</v>
       </c>
@@ -49101,8 +50589,11 @@
       <c r="D475" s="11" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -49112,8 +50603,11 @@
       <c r="D476" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
         <v>281</v>
       </c>
@@ -49123,6 +50617,9 @@
       </c>
       <c r="D477" s="13" t="s">
         <v>438</v>
+      </c>
+      <c r="E477" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
